--- a/Locations.xlsx
+++ b/Locations.xlsx
@@ -8,25 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Code\Cricket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C7F685-3258-459F-A491-C57D271AA107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A978D87A-BC2F-439E-8729-CE6C91F7B3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ODIGrounds" sheetId="1" r:id="rId1"/>
-    <sheet name="T20iGround" sheetId="2" r:id="rId2"/>
+    <sheet name="PSLGrounds" sheetId="3" r:id="rId1"/>
+    <sheet name="ODIGrounds" sheetId="1" r:id="rId2"/>
+    <sheet name="T20IGrounds" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>Grounds</t>
   </si>
@@ -89,6 +101,87 @@
   </si>
   <si>
     <t>The Oval</t>
+  </si>
+  <si>
+    <t>Dubai International Cricket Stadium</t>
+  </si>
+  <si>
+    <t>Sharjah Cricket Stadium</t>
+  </si>
+  <si>
+    <t>Stadium</t>
+  </si>
+  <si>
+    <t>Eden Park</t>
+  </si>
+  <si>
+    <t>Melbourne Cricket Ground</t>
+  </si>
+  <si>
+    <t>The Rose Bowl</t>
+  </si>
+  <si>
+    <t>Sydney Showground Stadium</t>
+  </si>
+  <si>
+    <t>Sydney Cricket Ground</t>
+  </si>
+  <si>
+    <t>Sheikh Zayed Stadium</t>
+  </si>
+  <si>
+    <t>Sheikh Abu Naser Stadium</t>
+  </si>
+  <si>
+    <t>Newlands</t>
+  </si>
+  <si>
+    <t>National Stadium</t>
+  </si>
+  <si>
+    <t>Maple Leaf North-West Ground</t>
+  </si>
+  <si>
+    <t>Wankhede Stadium</t>
+  </si>
+  <si>
+    <t>Centurion Park</t>
+  </si>
+  <si>
+    <t>Perth Stadium</t>
+  </si>
+  <si>
+    <t>Basin Reserve</t>
+  </si>
+  <si>
+    <t>Highveld Wanderers Stadium</t>
+  </si>
+  <si>
+    <t>Adelaide Oval</t>
+  </si>
+  <si>
+    <t>Barbados Kensington Oval</t>
+  </si>
+  <si>
+    <t>Headingley Stadium</t>
+  </si>
+  <si>
+    <t>Trent Bridge</t>
+  </si>
+  <si>
+    <t>Stadiums</t>
+  </si>
+  <si>
+    <t>Rawalpindi Cricket Stadium</t>
+  </si>
+  <si>
+    <t>Pindi Cricket Stadium</t>
+  </si>
+  <si>
+    <t>Multan Cricket Stadium</t>
+  </si>
+  <si>
+    <t>Gaddafi Stadium</t>
   </si>
 </sst>
 </file>
@@ -104,15 +197,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor theme="6" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -120,12 +219,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,6 +517,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3CECBE-7552-4227-8220-3B276CD4A577}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A21"/>
   <sheetViews>
@@ -525,16 +695,135 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4D9876-0122-4B62-AE67-1C4A77752ED9}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616CE0C0-3530-4C0B-82E8-8B548B575679}">
+  <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>